--- a/model_exports/labels/2.0_False_False_4_1.xlsx
+++ b/model_exports/labels/2.0_False_False_4_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C734"/>
+  <dimension ref="A1:C732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-497139824780787712</t>
+          <t>t-495123711071387649</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-497141925451792384</t>
+          <t>t-577847446270832640</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-497161697371893760</t>
+          <t>t-763135506188206084</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-497242468627124224</t>
+          <t>t-763744681616257025</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-497474058641215489</t>
+          <t>t-764320260182806528</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-497485019451883520</t>
+          <t>t-1032695855143370753</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,20 +557,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-504042718663036928</t>
+          <t>t-1033108055162941440</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-504366068648148992</t>
+          <t>t-1047160746386382848</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-504850389129129984</t>
+          <t>t-583290347863851008</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,20 +596,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-504998704118394880</t>
+          <t>t-601392774370340865</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-509432328561885184</t>
+          <t>t-658615758751211520</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,20 +622,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-501732075599593472</t>
+          <t>t-658616745809330176</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-688456240490508289</t>
+          <t>t-658617481574092800</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-690710236638777344</t>
+          <t>t-712108446167011328</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,20 +661,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-690724653006921728</t>
+          <t>t-756508260925075456</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-759240736864870400</t>
+          <t>t-815615714082095105</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,11 +687,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-1027818664391847936</t>
+          <t>t-816012131535613952</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-1027909740905553920</t>
+          <t>t-816043428630839296</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -713,7 +713,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-588022316359151617</t>
+          <t>t-816046695377158145</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,72 +726,72 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-588515231380348928</t>
+          <t>t-816056629867188225</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-588525414441553920</t>
+          <t>t-816367923770118149</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-588659923807907840</t>
+          <t>t-816380623434592257</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-622509518346268672</t>
+          <t>t-830539164638703616</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-658615758751211520</t>
+          <t>t-875748360933847041</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-658616745809330176</t>
+          <t>t-876890893143298050</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,7 +804,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-658617481574092800</t>
+          <t>t-876899745704415232</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -817,33 +817,33 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-701855843747241986</t>
+          <t>t-876909191105048577</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-798305189924982784</t>
+          <t>t-876910840670302209</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-909776370410168323</t>
+          <t>t-876983597760172032</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,20 +856,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-924109747627929600</t>
+          <t>t-877064271393370112</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-945777508007464961</t>
+          <t>t-877647799629733893</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,11 +882,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-959172176346836993</t>
+          <t>t-877649383340298240</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -895,24 +895,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-985145363618246656</t>
+          <t>t-878107705168334848</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-985306564868354049</t>
+          <t>t-878263651773407233</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -921,20 +921,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-1024388985282383872</t>
+          <t>t-878265674975461376</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-1036653090664075265</t>
+          <t>t-878542338414362624</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,7 +947,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-1036716876020285440</t>
+          <t>t-880275227367821312</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,7 +960,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-1037295289206546433</t>
+          <t>t-902187406123835394</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -973,7 +973,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-1037346167451992064</t>
+          <t>t-902225607563644928</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-1037351232451608577</t>
+          <t>t-922305869466890240</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,11 +999,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-1037351271697657857</t>
+          <t>t-968259732858376192</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1012,20 +1012,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-1037367364231344128</t>
+          <t>t-1030587514820669441</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-1037535909296709632</t>
+          <t>t-1030625730407874563</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,11 +1038,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-1045002319061012482</t>
+          <t>t-1031145618503360513</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1051,33 +1051,33 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-1045014122092482560</t>
+          <t>t-1031309689848508416</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-1045027654121000962</t>
+          <t>t-822160325608734720</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-1045031106968465408</t>
+          <t>t-822824168110493696</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,7 +1090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-1045065376575475712</t>
+          <t>t-823329247884251137</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,11 +1103,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-1052350536111013888</t>
+          <t>t-832760057259384834</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1116,20 +1116,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-1060177367417655297</t>
+          <t>t-832777578633064449</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-1060184735106781189</t>
+          <t>t-507610683022643200</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,50 +1142,50 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-1060185768549908480</t>
+          <t>t-925753092301295616</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-1060186673835900928</t>
+          <t>t-985698935074369536</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-1060281450493136896</t>
+          <t>t-606774570255654912</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-1060341719915470848</t>
+          <t>t-608562753129840640</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -1194,7 +1194,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1060518882832658433</t>
+          <t>t-746432967740882945</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,7 +1207,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1060908480901640192</t>
+          <t>t-754462771173924865</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,11 +1220,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-812540411746975744</t>
+          <t>t-765818303898058752</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1233,46 +1233,46 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-778024515909537792</t>
+          <t>t-816207402437636096</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-819315426853273600</t>
+          <t>t-835997827369156608</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-1024774127687749633</t>
+          <t>t-903960318652669952</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-1026541253037453312</t>
+          <t>t-903973451970392064</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1285,11 +1285,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-1026546271392165888</t>
+          <t>t-987586031829569536</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1298,59 +1298,59 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-1026556162186117121</t>
+          <t>t-987647086475673600</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-1026678249978585088</t>
+          <t>t-987928780621668352</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-1026720073308925953</t>
+          <t>t-989808164907319296</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-591245619513163777</t>
+          <t>t-992796128654524417</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-615459121891012608</t>
+          <t>t-1017282491193782272</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,33 +1363,33 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-619895281761423360</t>
+          <t>t-1061557072670670850</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-744529744385892352</t>
+          <t>t-1061559942140780544</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-744534982144757760</t>
+          <t>t-618483539777093632</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,46 +1402,46 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-765818303898058752</t>
+          <t>t-770776256669372416</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-768798517900906496</t>
+          <t>t-507504670592356352</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-841634951439220736</t>
+          <t>t-507919904779948032</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-893144326049419264</t>
+          <t>t-611838090278121474</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,7 +1454,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-987586031829569536</t>
+          <t>t-612267884463673344</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-987647086475673600</t>
+          <t>t-612280320520425472</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,7 +1480,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-987928780621668352</t>
+          <t>t-621832039763849218</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,20 +1493,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-989808164907319296</t>
+          <t>t-621845142903754752</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-1049900608294137856</t>
+          <t>t-639446444949180417</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,20 +1519,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-618483539777093632</t>
+          <t>t-962999495893176320</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-757940960609173505</t>
+          <t>t-1007699633349582849</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,20 +1545,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-788842589554343938</t>
+          <t>t-1007719195323269122</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-878279115006136321</t>
+          <t>t-1008223489369796609</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,7 +1571,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-981152225723604993</t>
+          <t>t-1008226683005087744</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,24 +1584,24 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-619513224057061376</t>
+          <t>t-1008430016873394176</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-621832039763849218</t>
+          <t>t-1008458331160182784</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-621845142903754752</t>
+          <t>t-1008771230261039104</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,20 +1623,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-710560200558653440</t>
+          <t>t-1009061662731767808</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-773307883878363136</t>
+          <t>t-1009095412505022464</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,7 +1649,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-824338590389960704</t>
+          <t>t-1009284771766140929</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,20 +1662,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-917079758076370946</t>
+          <t>t-1009553393331986433</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-548325093256884224</t>
+          <t>t-511616761545121792</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-767772450964725760</t>
+          <t>t-618395942002102272</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,7 +1701,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-768897641946181632</t>
+          <t>t-641288611472654336</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,20 +1714,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-768901368044134400</t>
+          <t>t-770209564532674560</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-858145943971037184</t>
+          <t>t-781902339066191873</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,7 +1740,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-858516314167627776</t>
+          <t>t-868226298719633408</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1753,7 +1753,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-868226298719633408</t>
+          <t>t-524878421172953088</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,7 +1766,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-978735824383590400</t>
+          <t>t-697866091025080320</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1779,7 +1779,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-981162868749033472</t>
+          <t>t-973959709605662721</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,7 +1792,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-981305166392692736</t>
+          <t>t-973962375287246848</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,7 +1805,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-981306180961275904</t>
+          <t>t-973995114065465345</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,7 +1818,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-681802042885697536</t>
+          <t>t-974310620169474048</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1831,20 +1831,20 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-682128192019234816</t>
+          <t>t-575924078906904576</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-682147581405859841</t>
+          <t>t-675047436134543360</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1857,11 +1857,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-682223092198936576</t>
+          <t>t-783792055160082432</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1870,20 +1870,20 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-682287065824931840</t>
+          <t>t-919827029243187200</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-682459381347254272</t>
+          <t>t-919919408797151233</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,11 +1896,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-682632199527641089</t>
+          <t>t-919933275422027776</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-682755737790099456</t>
+          <t>t-919961378433224704</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,11 +1922,11 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-682908634020470785</t>
+          <t>t-920296060211400704</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-682915879026339840</t>
+          <t>t-953935668199215104</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,20 +1948,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-683017640638582784</t>
+          <t>t-953991296196149248</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-683036658942513152</t>
+          <t>t-1031843897373278208</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,11 +1974,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-683077568287866880</t>
+          <t>t-547652103607697408</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-683235960692314112</t>
+          <t>t-583930739512713216</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2000,11 +2000,11 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-683258563628777472</t>
+          <t>t-936531630868529152</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2013,11 +2013,11 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-683386799184543745</t>
+          <t>t-949552218650365952</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -2026,11 +2026,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-683399457254326272</t>
+          <t>t-782023965489238017</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2039,24 +2039,24 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-683602691965206528</t>
+          <t>t-843361396750409728</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-683628764622905344</t>
+          <t>t-611996097129619456</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -2065,20 +2065,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-683644184683753472</t>
+          <t>t-625832003070509056</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-683649428587155456</t>
+          <t>t-626848405877301248</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,11 +2091,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-683773064040050688</t>
+          <t>t-692803310668087296</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -2104,24 +2104,24 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-683968472968228864</t>
+          <t>t-987722164903251968</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-683979793273065473</t>
+          <t>t-575206069833629696</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -2130,98 +2130,98 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-684007082555748352</t>
+          <t>t-595961510528180224</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-684323489562558465</t>
+          <t>t-736136204106616832</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-685408547975331840</t>
+          <t>t-578289267857891328</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-950852460532428800</t>
+          <t>t-720931143055491072</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-953648628647706624</t>
+          <t>t-894558986925744129</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-973959709605662721</t>
+          <t>t-901151504714870784</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-973962375287246848</t>
+          <t>t-1031211148908081152</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-973995114065465345</t>
+          <t>t-612099863975583744</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,7 +2234,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-974310620169474048</t>
+          <t>t-612781430335082496</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,7 +2247,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-986144781721104384</t>
+          <t>t-612783809587580928</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -2260,11 +2260,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-536361968840769536</t>
+          <t>t-621245283935121408</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -2273,33 +2273,33 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-675047436134543360</t>
+          <t>t-791266893470568448</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-743488475874353153</t>
+          <t>t-791268686447378433</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-743501818358042625</t>
+          <t>t-870660332800397312</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2312,7 +2312,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-887680971797131264</t>
+          <t>t-870684149173977089</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,46 +2325,46 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-887683274591662080</t>
+          <t>t-904717770524372993</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-887690953800253442</t>
+          <t>t-917499339278254080</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-887715764404449281</t>
+          <t>t-972059634101047296</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-887751540173414404</t>
+          <t>t-624561158788247552</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,24 +2377,24 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-887923666507489280</t>
+          <t>t-636384018599030785</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-887928668626055169</t>
+          <t>t-700818903744778240</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,24 +2403,24 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-887976731767918592</t>
+          <t>t-806138760937271296</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-888083621801844737</t>
+          <t>t-941641219024748544</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2429,33 +2429,33 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-915529742002135041</t>
+          <t>t-962803499766513664</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-915535227245776896</t>
+          <t>t-903173716451909632</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-919827029243187200</t>
+          <t>t-861649200160710656</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,50 +2468,50 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-919919408797151233</t>
+          <t>t-707739170878439424</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-919933275422027776</t>
+          <t>t-883080365442838528</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-919961378433224704</t>
+          <t>t-883215183442739200</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-920296060211400704</t>
+          <t>t-769366123678621696</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-923100909521068032</t>
+          <t>t-875514382276538369</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2533,37 +2533,37 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-559857374312529920</t>
+          <t>t-743015826601697281</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-559902019893202944</t>
+          <t>t-872405308236337153</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-841795901764993024</t>
+          <t>t-748127558550560768</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-841877177624850434</t>
+          <t>t-946987966475448325</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,24 +2585,24 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-872693400436219904</t>
+          <t>t-780856348493832192</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-611996097129619456</t>
+          <t>t-782856010625003521</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -2611,20 +2611,20 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-1062308914354642944</t>
+          <t>t-864813217943441412</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-902218968345272321</t>
+          <t>t-799981773354463232</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,7 +2637,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-894558986925744129</t>
+          <t>t-799998393695305728</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,20 +2650,20 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-1060963338337902593</t>
+          <t>t-800091318642950144</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-594613009575579649</t>
+          <t>t-829201577370075136</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2676,50 +2676,50 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-708373253648207873</t>
+          <t>t-829349939947925504</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-745905684248694789</t>
+          <t>t-829364075721326592</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-745992462448140288</t>
+          <t>t-829412936661815299</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-746083614291562497</t>
+          <t>t-1034302397882015745</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -2728,11 +2728,11 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-766291748704423936</t>
+          <t>t-1034317413309919232</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -2741,11 +2741,11 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-826760200636002305</t>
+          <t>t-1034572709651533825</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -2754,63 +2754,63 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-878162982953402368</t>
+          <t>t-1034867901902319618</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-917499339278254080</t>
+          <t>t-1034875857125425152</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-961914631135617025</t>
+          <t>t-1034886406957662208</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-972059634101047296</t>
+          <t>t-1034922534326738944</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-700818903744778240</t>
+          <t>t-1035345459290746880</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -2819,72 +2819,72 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-994221853211267073</t>
+          <t>t-1035480584934514690</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-1043269235474984960</t>
+          <t>t-1035555438882897926</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-730685047137800192</t>
+          <t>t-1036020306895413248</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-730687533638619136</t>
+          <t>t-1036935289485316096</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-743015826601697281</t>
+          <t>t-1037072521940623360</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-748127558550560768</t>
+          <t>t-1037363401314455553</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2897,7 +2897,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-758205502480388096</t>
+          <t>t-1037404586812821505</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2910,37 +2910,37 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-758575120290091008</t>
+          <t>t-1037450313920393218</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-782856010625003521</t>
+          <t>t-1037475943969898497</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-888405582352437248</t>
+          <t>t-1037727143038517248</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -2949,11 +2949,11 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-1034302397882015745</t>
+          <t>t-1037749001658032128</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -2962,24 +2962,24 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-1034317413309919232</t>
+          <t>t-985241133159796736</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-1034572709651533825</t>
+          <t>t-692385146725646340</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -2988,20 +2988,20 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-1034867901902319618</t>
+          <t>t-911670405483651072</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-1034875857125425152</t>
+          <t>t-530194842861580288</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,46 +3014,46 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-1034886406957662208</t>
+          <t>t-652481072199036928</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-1034922534326738944</t>
+          <t>t-715206020902084609</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-1035345459290746880</t>
+          <t>t-715208550243557376</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-1035480584934514690</t>
+          <t>t-715210823002562560</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -3066,20 +3066,20 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1035555438882897926</t>
+          <t>t-715215011178803200</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1036020306895413248</t>
+          <t>t-764530848079155200</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,20 +3092,20 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1036935289485316096</t>
+          <t>t-764927216257949696</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1037072521940623360</t>
+          <t>t-784456849215123457</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -3118,11 +3118,11 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1037363401314455553</t>
+          <t>t-794700824404430848</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -3131,20 +3131,20 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-1037404586812821505</t>
+          <t>t-815857432882769920</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-1037450313920393218</t>
+          <t>t-816077181575106560</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,24 +3157,24 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-1037475943969898497</t>
+          <t>t-821459572263100416</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-1037727143038517248</t>
+          <t>t-1016477854391992320</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -3183,72 +3183,72 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1037749001658032128</t>
+          <t>t-1026272267364253698</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-1039228208804233216</t>
+          <t>t-1028684190169149440</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-1042035586717110280</t>
+          <t>t-1028764502517592065</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-892821066799820805</t>
+          <t>t-1052665207342944261</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-536338799517634560</t>
+          <t>t-1053196089317306368</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-601913063172771840</t>
+          <t>t-1053286918086103042</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3261,11 +3261,11 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-602589391198900226</t>
+          <t>t-1054369632671404032</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
@@ -3274,11 +3274,11 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-604384366886834177</t>
+          <t>t-697902764966301696</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -3287,11 +3287,11 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-604797500965265408</t>
+          <t>t-748353178270199808</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
@@ -3300,20 +3300,20 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-605112787141033985</t>
+          <t>t-760920272639852545</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-605369768720396288</t>
+          <t>t-760967260039106560</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -3326,7 +3326,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-662196453281038336</t>
+          <t>t-760972532421984261</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,11 +3339,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-745382805253677057</t>
+          <t>t-760978989359833088</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -3352,11 +3352,11 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-757613409047343105</t>
+          <t>t-761017815637696513</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
@@ -3365,24 +3365,24 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-784456849215123457</t>
+          <t>t-761048712214818816</t>
         </is>
       </c>
       <c r="B226" t="n">
         <v>1</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-785997107094093825</t>
+          <t>t-761049587066867712</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -3391,7 +3391,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-821459572263100416</t>
+          <t>t-761050328493985794</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,11 +3404,11 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-833578679338942464</t>
+          <t>t-761057847262142465</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
@@ -3417,11 +3417,11 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-851625591652720640</t>
+          <t>t-891394338445553666</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" t="n">
         <v>1</v>
@@ -3430,24 +3430,24 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-852529810760908801</t>
+          <t>t-891401235391066112</t>
         </is>
       </c>
       <c r="B231" t="n">
         <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-852624282018615296</t>
+          <t>t-891671460804259840</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
@@ -3456,46 +3456,46 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-956329812573945857</t>
+          <t>t-891695041609162754</t>
         </is>
       </c>
       <c r="B233" t="n">
         <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-998567520113225733</t>
+          <t>t-892069950281711617</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-1036976718718881793</t>
+          <t>t-892901315642146816</t>
         </is>
       </c>
       <c r="B235" t="n">
         <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-697902764966301696</t>
+          <t>t-1006674770983817217</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3508,59 +3508,59 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-756927547049320448</t>
+          <t>t-1030896472881917952</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-1008536493269237760</t>
+          <t>t-1042832069506871296</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-1016850546236542983</t>
+          <t>t-761355220198756352</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-1035948096843395073</t>
+          <t>t-761372714925891586</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-1042832069506871296</t>
+          <t>t-796087988140834817</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3573,11 +3573,11 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-534896855906537472</t>
+          <t>t-1042440160749780992</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3586,11 +3586,11 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-796087988140834817</t>
+          <t>t-581999689727389696</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -3599,20 +3599,20 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-903370281829498882</t>
+          <t>t-616575922674769920</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-569509595133173761</t>
+          <t>t-616694572853256192</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,24 +3625,24 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-586160130313625600</t>
+          <t>t-716748651113091072</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-647384012202356736</t>
+          <t>t-716774298296389632</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3651,24 +3651,24 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-648159002224914436</t>
+          <t>t-745683270160027648</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-648232794137718784</t>
+          <t>t-849475288652238849</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -3677,46 +3677,46 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-648426685910618112</t>
+          <t>t-968863674306834432</t>
         </is>
       </c>
       <c r="B250" t="n">
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-651743798721122304</t>
+          <t>t-1000764381108555776</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-705116084911763456</t>
+          <t>t-1049984041888505856</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-708952691926548480</t>
+          <t>t-1051063984038776837</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,50 +3729,50 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-755726869270523904</t>
+          <t>t-1014627656082579457</t>
         </is>
       </c>
       <c r="B254" t="n">
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-767994872578056192</t>
+          <t>t-685265326112559104</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-799654742746165248</t>
+          <t>t-741861803148214272</t>
         </is>
       </c>
       <c r="B256" t="n">
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-849475288652238849</t>
+          <t>t-859608993752379392</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -3781,85 +3781,85 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-856624832292827137</t>
+          <t>t-646786233809539072</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-919174352289005568</t>
+          <t>t-684979291696664576</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-919528265718665216</t>
+          <t>t-726931802141659137</t>
         </is>
       </c>
       <c r="B260" t="n">
         <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-936972059766415360</t>
+          <t>t-772514094360305664</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-953220290657492992</t>
+          <t>t-833086724096028673</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-968863674306834432</t>
+          <t>t-561705902466957314</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-1006258184636510210</t>
+          <t>t-570559495811813376</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,24 +3872,24 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-1037619174145712128</t>
+          <t>t-570650767369109504</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-1052331593933688832</t>
+          <t>t-570656230466838528</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -3898,20 +3898,20 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-1052814538419003392</t>
+          <t>t-570659758706962432</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-1052930779947393024</t>
+          <t>t-570724512095969280</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,7 +3924,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-1052972300667146241</t>
+          <t>t-570966152807100416</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,7 +3937,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-1053005694822207488</t>
+          <t>t-570990183648243712</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,7 +3950,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-1053014697077817346</t>
+          <t>t-571060362520502272</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,7 +3963,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-1053091674438725632</t>
+          <t>t-571231922355097600</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,20 +3976,20 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-1053211878921568256</t>
+          <t>t-571320451407974400</t>
         </is>
       </c>
       <c r="B273" t="n">
         <v>1</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-1053220103070932992</t>
+          <t>t-571330597400018944</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4002,33 +4002,33 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-1053451825607774209</t>
+          <t>t-571345826099941376</t>
         </is>
       </c>
       <c r="B275" t="n">
         <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-1053915265375834112</t>
+          <t>t-571920017329156096</t>
         </is>
       </c>
       <c r="B276" t="n">
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-1057289433236545538</t>
+          <t>t-572029056453115906</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,59 +4041,59 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-741861803148214272</t>
+          <t>t-573087826360836097</t>
         </is>
       </c>
       <c r="B278" t="n">
         <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-903255663417204736</t>
+          <t>t-663721804310122496</t>
         </is>
       </c>
       <c r="B279" t="n">
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-910953097316376576</t>
+          <t>t-666910428551897088</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-910955895714123776</t>
+          <t>t-795702151049834496</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-602992695011889152</t>
+          <t>t-803598066133573632</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,11 +4106,11 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-726931802141659137</t>
+          <t>t-811342708061024256</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283" t="n">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-1026494793466048518</t>
+          <t>t-573120640175112192</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,20 +4132,20 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-698062078922375169</t>
+          <t>t-722677158112587776</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-727758683510329344</t>
+          <t>t-791567733695606784</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,33 +4158,33 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-727889856274247680</t>
+          <t>t-788874378666737664</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-795702151049834496</t>
+          <t>t-864137650625753088</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-801380815166930945</t>
+          <t>t-864465975068037122</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,20 +4197,20 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-951353773321945088</t>
+          <t>t-864657619700658176</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-951370648210767877</t>
+          <t>t-998345989382705152</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,7 +4223,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-563347902408695811</t>
+          <t>t-567287806645395457</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,20 +4236,20 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-811342708061024256</t>
+          <t>t-571711350180868097</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-722677158112587776</t>
+          <t>t-578003881596215296</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4262,7 +4262,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-565107354606518272</t>
+          <t>t-887375379186548736</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4275,11 +4275,11 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-984138305477505025</t>
+          <t>t-906773843066441728</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296" t="n">
         <v>1</v>
@@ -4288,20 +4288,20 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-998345989382705152</t>
+          <t>t-906922961621454848</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-1049061003617607680</t>
+          <t>t-906981528483364865</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-1049351090909667329</t>
+          <t>t-906982446905876480</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,46 +4327,46 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-1050209065153036288</t>
+          <t>t-995839519449640960</t>
         </is>
       </c>
       <c r="B300" t="n">
         <v>1</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-817491496857255936</t>
+          <t>t-572732322178572288</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-576618970368876544</t>
+          <t>t-572748274618277888</t>
         </is>
       </c>
       <c r="B302" t="n">
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-659011315088781312</t>
+          <t>t-572762505111580673</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,59 +4379,59 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-659473740955189248</t>
+          <t>t-573486943880638464</t>
         </is>
       </c>
       <c r="B304" t="n">
         <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-995839519449640960</t>
+          <t>t-572808490965733378</t>
         </is>
       </c>
       <c r="B305" t="n">
         <v>1</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-1042410099652919297</t>
+          <t>t-573279947445420034</t>
         </is>
       </c>
       <c r="B306" t="n">
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-1012441483654332417</t>
+          <t>t-729341140499976193</t>
         </is>
       </c>
       <c r="B307" t="n">
         <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-572808490965733378</t>
+          <t>t-729421969410564096</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4444,37 +4444,37 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-573281947792883712</t>
+          <t>t-729436964269658112</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-884636889948471296</t>
+          <t>t-729446762138591232</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-887004122628710405</t>
+          <t>t-729454167735959552</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -4483,33 +4483,33 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-887017424306008065</t>
+          <t>t-729749802209054720</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-1052977443760427009</t>
+          <t>t-763085869045653505</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-1002347419114311681</t>
+          <t>t-763088808799797248</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -4522,7 +4522,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-1050145290718564352</t>
+          <t>t-771375628176072704</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,76 +4535,76 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-837738761547091968</t>
+          <t>t-860196024056414208</t>
         </is>
       </c>
       <c r="B316" t="n">
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-669944728155090944</t>
+          <t>t-1033036271491461120</t>
         </is>
       </c>
       <c r="B317" t="n">
         <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-774740590848188416</t>
+          <t>t-1057298961642471425</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-851578277311373312</t>
+          <t>t-580101390820876288</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-880307230364508160</t>
+          <t>t-580474226571915265</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-1038395251214495744</t>
+          <t>t-581395014502191104</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -4613,11 +4613,11 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-1038467054960095234</t>
+          <t>t-609930400341725185</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" t="n">
         <v>1</v>
@@ -4626,33 +4626,33 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-1038555106885681153</t>
+          <t>t-609937116462604289</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-1041460734738063360</t>
+          <t>t-992231007083421698</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-1041507023660081152</t>
+          <t>t-992892560405250048</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -4665,20 +4665,20 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-1049670308142206978</t>
+          <t>t-1028993321757077505</t>
         </is>
       </c>
       <c r="B326" t="n">
         <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-1049725086469685248</t>
+          <t>t-1047259835777990656</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4691,76 +4691,76 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-914224756555055104</t>
+          <t>t-880261784304631810</t>
         </is>
       </c>
       <c r="B328" t="n">
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-629437596280750080</t>
+          <t>t-914224756555055104</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-1050079983765311488</t>
+          <t>t-677918822104473600</t>
         </is>
       </c>
       <c r="B330" t="n">
         <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-676228752599314434</t>
+          <t>t-1006709802775412736</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-676234421217845248</t>
+          <t>t-653702331221999616</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-676358315065016322</t>
+          <t>t-659172274482733056</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -4769,7 +4769,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-765678719205724160</t>
+          <t>t-659184469690175488</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,7 +4782,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-895489338364055553</t>
+          <t>t-762366384747589634</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4795,7 +4795,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-981921278876684288</t>
+          <t>t-762414153185173504</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,20 +4808,20 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-667433104118833152</t>
+          <t>t-762454271832928257</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-886426015374946304</t>
+          <t>t-661127792231321600</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,7 +4834,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-919294420465229824</t>
+          <t>t-736702899519004674</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4847,63 +4847,63 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-803234433000148994</t>
+          <t>t-794366500865982467</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-803236909183107073</t>
+          <t>t-976481160363692032</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-803260822801649664</t>
+          <t>t-685125009120038913</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-803260889940062209</t>
+          <t>t-736405703838044160</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-803271446357282816</t>
+          <t>t-715468390047961088</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C344" t="n">
         <v>1</v>
@@ -4912,63 +4912,63 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-667518003613818880</t>
+          <t>t-716262349536149504</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-736702899519004674</t>
+          <t>t-725450676986335232</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-753352623630278664</t>
+          <t>t-853267425386803200</t>
         </is>
       </c>
       <c r="B347" t="n">
         <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-685125009120038913</t>
+          <t>t-733752725972746240</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-954775347962241025</t>
+          <t>t-733764949433012224</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349" t="n">
         <v>1</v>
@@ -4977,7 +4977,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-954792612103442432</t>
+          <t>t-734458703231885312</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,11 +4990,11 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-954866409300987904</t>
+          <t>t-829844333205413888</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -5003,7 +5003,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-716262349536149504</t>
+          <t>t-751165986527674368</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,20 +5016,20 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-749466819581411328</t>
+          <t>t-751167208219406336</t>
         </is>
       </c>
       <c r="B353" t="n">
         <v>1</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-1016527492478328832</t>
+          <t>t-1035527464511053825</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -5042,20 +5042,20 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-1011820273774006272</t>
+          <t>t-843607928133292033</t>
         </is>
       </c>
       <c r="B355" t="n">
         <v>1</v>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-1012308763422937089</t>
+          <t>t-946020250805514240</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,20 +5068,20 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-1021764160093401089</t>
+          <t>t-772460103026868224</t>
         </is>
       </c>
       <c r="B357" t="n">
         <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-1022188431483387905</t>
+          <t>t-904025443510214656</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,33 +5094,33 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-1022188766964998144</t>
+          <t>t-904025763938217984</t>
         </is>
       </c>
       <c r="B359" t="n">
         <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-1022577266117824514</t>
+          <t>t-904026823356506112</t>
         </is>
       </c>
       <c r="B360" t="n">
         <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-1023560708376748032</t>
+          <t>t-922899400032178176</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,7 +5133,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-1023767948165562368</t>
+          <t>t-922934157185110016</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,11 +5146,11 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-1023931290045829121</t>
+          <t>t-925465361557975040</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -5159,7 +5159,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-1024052229152669696</t>
+          <t>t-803919035318628352</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5172,24 +5172,24 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-1025467650649014283</t>
+          <t>t-804312701002457088</t>
         </is>
       </c>
       <c r="B365" t="n">
         <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-1025523844994412544</t>
+          <t>t-852608222380924929</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C366" t="n">
         <v>1</v>
@@ -5198,11 +5198,11 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-1025538626191380480</t>
+          <t>t-852804949515698178</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C367" t="n">
         <v>1</v>
@@ -5211,24 +5211,24 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-1026286692037222401</t>
+          <t>t-855194797681897472</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-1026301775203037184</t>
+          <t>t-855248575567147008</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -5237,59 +5237,59 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-1026820332710252544</t>
+          <t>t-885945201105219584</t>
         </is>
       </c>
       <c r="B370" t="n">
         <v>1</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-1027725663703363584</t>
+          <t>t-885947457330438145</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-996559091932770305</t>
+          <t>t-850386711385260034</t>
         </is>
       </c>
       <c r="B372" t="n">
         <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-998557475266859013</t>
+          <t>t-863757133304795136</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-999117713749495808</t>
+          <t>t-849301263959420929</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,7 +5302,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-904025443510214656</t>
+          <t>t-854163806288834560</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,7 +5315,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-904025763938217984</t>
+          <t>t-902559120888184833</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -5328,7 +5328,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-904026823356506112</t>
+          <t>t-903611928827674624</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,7 +5341,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-779066799077851136</t>
+          <t>t-1036704309923246081</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,33 +5354,33 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-925465361557975040</t>
+          <t>t-1052284815779622917</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-897110070059728897</t>
+          <t>t-1052565742183272454</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-897827875231080448</t>
+          <t>t-1052712831517450241</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,37 +5393,37 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-796435007673946112</t>
+          <t>t-907371676148670465</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-796529318373584896</t>
+          <t>t-913905079392047105</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-796701113995104256</t>
+          <t>t-955145334002417666</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C384" t="n">
         <v>1</v>
@@ -5432,11 +5432,11 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-796745584795389952</t>
+          <t>t-1034792477096652801</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
         <v>1</v>
@@ -5445,20 +5445,20 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-939854628749004801</t>
+          <t>t-1041752836835614720</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-861539001962041345</t>
+          <t>t-542806015075713026</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,7 +5471,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-951198867181236228</t>
+          <t>t-621860106481762304</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -5484,7 +5484,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-880054371417018369</t>
+          <t>t-881960500829016064</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,24 +5497,24 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-906573891346165760</t>
+          <t>t-954911597251657728</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-905261367573090305</t>
+          <t>t-520694218625675264</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C391" t="n">
         <v>1</v>
@@ -5523,24 +5523,24 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-912214251749744641</t>
+          <t>t-824672856466423809</t>
         </is>
       </c>
       <c r="B392" t="n">
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-913905079392047105</t>
+          <t>t-523536371525623808</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C393" t="n">
         <v>1</v>
@@ -5549,24 +5549,24 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-630691491766251520</t>
+          <t>t-722253771867181056</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-673357306764140544</t>
+          <t>t-722818069320470529</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395" t="n">
         <v>1</v>
@@ -5575,7 +5575,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-927695512287043584</t>
+          <t>t-722837910135832577</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,37 +5588,37 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-941194598453571586</t>
+          <t>t-722884869374619648</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-1022200671666401281</t>
+          <t>t-723517423786299392</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-520694218625675264</t>
+          <t>t-615884908238651393</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C399" t="n">
         <v>1</v>
@@ -5627,7 +5627,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-1048603963069779968</t>
+          <t>t-738967171397758976</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -5640,11 +5640,11 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-521063203389050882</t>
+          <t>t-832598430291730433</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -5653,7 +5653,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-521358835361927168</t>
+          <t>t-957342329127473158</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,7 +5666,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-538351189679939584</t>
+          <t>t-788324770765008896</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -5679,11 +5679,11 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-819436418263031808</t>
+          <t>t-541965663666184192</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -5692,11 +5692,11 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-953177789628407808</t>
+          <t>t-538736663154135040</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -5705,20 +5705,20 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-953520796361744384</t>
+          <t>t-591871892283334656</t>
         </is>
       </c>
       <c r="B406" t="n">
         <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-1051696567651106816</t>
+          <t>t-595190714205634560</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -5731,7 +5731,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-1051874637942947840</t>
+          <t>t-642582982285504512</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -5744,11 +5744,11 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-519900708980948992</t>
+          <t>t-691624168824115200</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C409" t="n">
         <v>1</v>
@@ -5757,24 +5757,24 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-699600707318587392</t>
+          <t>t-691706624386404353</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-722253771867181056</t>
+          <t>t-834770863664795650</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" t="n">
         <v>1</v>
@@ -5783,24 +5783,24 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-722818069320470529</t>
+          <t>t-914844848359985152</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-722837910135832577</t>
+          <t>t-915131811310714880</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C413" t="n">
         <v>1</v>
@@ -5809,33 +5809,33 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-722884869374619648</t>
+          <t>t-915495031691235329</t>
         </is>
       </c>
       <c r="B414" t="n">
         <v>1</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-723517423786299392</t>
+          <t>t-915561177966505984</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-901639048464388096</t>
+          <t>t-933614181286318081</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,20 +5848,20 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-901662243594612737</t>
+          <t>t-933625586442035205</t>
         </is>
       </c>
       <c r="B417" t="n">
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-901835893232857088</t>
+          <t>t-950088164777123841</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,7 +5874,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-901991202857377792</t>
+          <t>t-950818741209747456</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -5887,7 +5887,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-902096694422228992</t>
+          <t>t-951169520584024064</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,33 +5900,33 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-902156696407216129</t>
+          <t>t-951600654866317313</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-902188288789925889</t>
+          <t>t-951687956045156352</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-902258946840313856</t>
+          <t>t-542716499115642881</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -5939,24 +5939,24 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-902339386959958016</t>
+          <t>t-649269312625209344</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-902474134315302912</t>
+          <t>t-722777139469283328</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -5965,20 +5965,20 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-931216910477414400</t>
+          <t>t-653928809671081984</t>
         </is>
       </c>
       <c r="B426" t="n">
         <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-529737265317421056</t>
+          <t>t-712209810511564800</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -5991,59 +5991,59 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-832598430291730433</t>
+          <t>t-800633887386988544</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-909677183328751616</t>
+          <t>t-816609916018454528</t>
         </is>
       </c>
       <c r="B429" t="n">
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-951835055445413893</t>
+          <t>t-1014607937048850434</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-955489372547305472</t>
+          <t>t-552766016325840896</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-955838886860787712</t>
+          <t>t-623733200322449409</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -6056,85 +6056,85 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-956166896012939265</t>
+          <t>t-652334979544948736</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-529740815221153793</t>
+          <t>t-820214611416928256</t>
         </is>
       </c>
       <c r="B434" t="n">
         <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-595202959648096256</t>
+          <t>t-828957006832795648</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-541965663666184192</t>
+          <t>t-1018785093295464448</t>
         </is>
       </c>
       <c r="B436" t="n">
         <v>1</v>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-1027585082050207745</t>
+          <t>t-564785591561506817</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-603463396365836289</t>
+          <t>t-565566410605473792</t>
         </is>
       </c>
       <c r="B438" t="n">
         <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-629222720161640449</t>
+          <t>t-837620098416459776</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -6147,7 +6147,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-762281733672820736</t>
+          <t>t-960782723957870592</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -6160,24 +6160,24 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-769394896344064001</t>
+          <t>t-570985250324656128</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-787588682731626496</t>
+          <t>t-571078007407775744</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C442" t="n">
         <v>0</v>
@@ -6186,7 +6186,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-842006165705875457</t>
+          <t>t-571808211742814209</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,24 +6199,24 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-925333063336321024</t>
+          <t>t-570990543225950209</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-933614181286318081</t>
+          <t>t-731437259828924417</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C445" t="n">
         <v>0</v>
@@ -6225,20 +6225,20 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-933625586442035205</t>
+          <t>t-756468934379966464</t>
         </is>
       </c>
       <c r="B446" t="n">
         <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-976509689000325120</t>
+          <t>t-580822339648122880</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -6251,11 +6251,11 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-993438566914101248</t>
+          <t>t-581167008596758528</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C448" t="n">
         <v>1</v>
@@ -6264,59 +6264,59 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-1006399568249008128</t>
+          <t>t-722410262058397697</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-1006422910762995712</t>
+          <t>t-760176410539528192</t>
         </is>
       </c>
       <c r="B450" t="n">
         <v>1</v>
       </c>
       <c r="C450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-1006422931839299584</t>
+          <t>t-918068732882313216</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-1006427045709180929</t>
+          <t>t-1003856366128259073</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-1006463635693203456</t>
+          <t>t-1005061843843289088</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -6329,24 +6329,24 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-1057165607152562176</t>
+          <t>t-581115572282376192</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-545381752093806593</t>
+          <t>t-583486848426713088</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C455" t="n">
         <v>0</v>
@@ -6355,11 +6355,11 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-549859905231142914</t>
+          <t>t-583674889480962049</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C456" t="n">
         <v>1</v>
@@ -6368,7 +6368,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-652506002957422592</t>
+          <t>t-737201412497649664</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -6381,46 +6381,46 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-712209810511564800</t>
+          <t>t-737877218718797825</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-800633887386988544</t>
+          <t>t-738015379373625344</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-571286359673053184</t>
+          <t>t-738097397058932736</t>
         </is>
       </c>
       <c r="B460" t="n">
         <v>1</v>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-571344417145135105</t>
+          <t>t-738253541266075652</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,7 +6433,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-712150675111727105</t>
+          <t>t-738419452778274816</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,46 +6446,46 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-823181666160144384</t>
+          <t>t-738714074352123904</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-1018785093295464448</t>
+          <t>t-940281474259062789</t>
         </is>
       </c>
       <c r="B464" t="n">
         <v>1</v>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-565566410605473792</t>
+          <t>t-587481090845179905</t>
         </is>
       </c>
       <c r="B465" t="n">
         <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-999158779580121089</t>
+          <t>t-591228165827260416</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -6498,7 +6498,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-633755138834874368</t>
+          <t>t-737572670372339712</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -6511,7 +6511,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-577532478912663552</t>
+          <t>t-595251975568109568</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,7 +6524,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-869260706524397568</t>
+          <t>t-740222976763830272</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,20 +6537,20 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-580746776262545409</t>
+          <t>t-740225059193819140</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-1005061843843289088</t>
+          <t>t-740231562940297216</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -6563,37 +6563,37 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-1027292918111825921</t>
+          <t>t-740233568627068929</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-712917955391172609</t>
+          <t>t-740511241383387136</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-817303376253882368</t>
+          <t>t-720146113794183169</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -6602,37 +6602,37 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-587481090845179905</t>
+          <t>t-1050165943790460929</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-591228165827260416</t>
+          <t>t-594811114661228544</t>
         </is>
       </c>
       <c r="B476" t="n">
         <v>0</v>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-591541513768673280</t>
+          <t>t-595126127343116288</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -6641,20 +6641,20 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-690751741676142592</t>
+          <t>t-955871714914766849</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-740222976763830272</t>
+          <t>t-608880570362437632</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -6667,20 +6667,20 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-740225059193819140</t>
+          <t>t-610036486059200513</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-740231562940297216</t>
+          <t>t-873880943819460609</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,59 +6693,59 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-740233568627068929</t>
+          <t>t-874034580747104259</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-740511241383387136</t>
+          <t>t-874852269765931008</t>
         </is>
       </c>
       <c r="B483" t="n">
         <v>1</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-942758921533624320</t>
+          <t>t-884366275937521664</t>
         </is>
       </c>
       <c r="B484" t="n">
         <v>1</v>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-624613462476337152</t>
+          <t>t-907976446286680066</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-624628271745998852</t>
+          <t>t-908018109373730816</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -6758,11 +6758,11 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-949260261575229441</t>
+          <t>t-740216200379158528</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -6771,20 +6771,20 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-955871714914766849</t>
+          <t>t-740233298862080000</t>
         </is>
       </c>
       <c r="B488" t="n">
         <v>1</v>
       </c>
       <c r="C488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-609461898141147136</t>
+          <t>t-740234615814819840</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,11 +6797,11 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-753246884345487361</t>
+          <t>t-740250007081766912</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C490" t="n">
         <v>1</v>
@@ -6810,20 +6810,20 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-880840050245849088</t>
+          <t>t-740302081416962049</t>
         </is>
       </c>
       <c r="B491" t="n">
         <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-994824289349242881</t>
+          <t>t-633703854580830208</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,7 +6836,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-994897053523341314</t>
+          <t>t-1018847155090542593</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,20 +6849,20 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-995019257841889281</t>
+          <t>t-642781966346010625</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-995256568429064192</t>
+          <t>t-643095780228771840</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,11 +6875,11 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-769927127475097602</t>
+          <t>t-643795122480631808</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -6888,7 +6888,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-633703854580830208</t>
+          <t>t-650407824212660224</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -6901,7 +6901,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-641169109116293120</t>
+          <t>t-650415832523255809</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,7 +6914,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-1035170375703961601</t>
+          <t>t-650581180757073921</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,20 +6927,20 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-1035201829989056512</t>
+          <t>t-650584856162926592</t>
         </is>
       </c>
       <c r="B500" t="n">
         <v>1</v>
       </c>
       <c r="C500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-1035614467998998530</t>
+          <t>t-650605489492000769</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -6953,11 +6953,11 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-636903909362167808</t>
+          <t>t-652058053697765376</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C502" t="n">
         <v>0</v>
@@ -6966,7 +6966,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-639695836943884288</t>
+          <t>t-653076415596888064</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,20 +6979,20 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-656425382145597440</t>
+          <t>t-925429606693457921</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-925429606693457921</t>
+          <t>t-984045729260982272</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,72 +7005,72 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-1004612435792232448</t>
+          <t>t-652148120952803329</t>
         </is>
       </c>
       <c r="B506" t="n">
         <v>0</v>
       </c>
       <c r="C506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-669879511748579329</t>
+          <t>t-660041764225589248</t>
         </is>
       </c>
       <c r="B507" t="n">
         <v>1</v>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-670195512713330689</t>
+          <t>t-676501548063657984</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-685089211784019968</t>
+          <t>t-681422251338674177</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-687198236776464384</t>
+          <t>t-715202576552169472</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-692403922451992576</t>
+          <t>t-897572628667478020</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -7083,11 +7083,11 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-701060752074010624</t>
+          <t>t-852243165302198273</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C512" t="n">
         <v>0</v>
@@ -7096,24 +7096,24 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-829095437466533888</t>
+          <t>t-737207145662435328</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-943797632639610881</t>
+          <t>t-737378615814393856</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C514" t="n">
         <v>0</v>
@@ -7122,11 +7122,11 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-948994988666425345</t>
+          <t>t-737618316705964032</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C515" t="n">
         <v>0</v>
@@ -7135,20 +7135,20 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-949010413437497347</t>
+          <t>t-737643792757587968</t>
         </is>
       </c>
       <c r="B516" t="n">
         <v>1</v>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-949151246799142913</t>
+          <t>t-737668431374389250</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,33 +7161,33 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-715202576552169472</t>
+          <t>t-737882738997530625</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-897572628667478020</t>
+          <t>t-738072611704430592</t>
         </is>
       </c>
       <c r="B519" t="n">
         <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-730493187534413824</t>
+          <t>t-738383058857021440</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -7200,11 +7200,11 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-730679314916757504</t>
+          <t>t-741709377703411712</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C521" t="n">
         <v>1</v>
@@ -7213,37 +7213,37 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-979633616404844544</t>
+          <t>t-743471999876472833</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-953202460994232320</t>
+          <t>t-737703959993913344</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-953212881809518592</t>
+          <t>t-737753796202385408</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" t="n">
         <v>0</v>
@@ -7252,59 +7252,59 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-957930793187397632</t>
+          <t>t-737755886211477504</t>
         </is>
       </c>
       <c r="B525" t="n">
         <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-963803678573547520</t>
+          <t>t-737784335567364096</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-1003603539539742720</t>
+          <t>t-737884729626791936</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-952868151414403072</t>
+          <t>t-737979350088323072</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-957730126799802368</t>
+          <t>t-737976116753883136</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -7317,7 +7317,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-740249467828482048</t>
+          <t>t-738434736910176256</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -7330,7 +7330,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-754249103434022912</t>
+          <t>t-738790953792720896</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,11 +7343,11 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-1041726034662633472</t>
+          <t>t-811198180654272512</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C532" t="n">
         <v>1</v>
@@ -7356,7 +7356,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-760154379307458560</t>
+          <t>t-897405884489506816</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -7369,11 +7369,11 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-795263551388663808</t>
+          <t>t-1002274254954647552</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C534" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-834805481759789056</t>
+          <t>t-1002283218085863430</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -7395,37 +7395,37 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-834984907881525249</t>
+          <t>t-860462128263811072</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-836581914320506880</t>
+          <t>t-748138953241464832</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-952289558770651136</t>
+          <t>t-754249103434022912</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C538" t="n">
         <v>0</v>
@@ -7434,7 +7434,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-952536637413584897</t>
+          <t>t-765679686244454400</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -7447,7 +7447,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-952649290148704259</t>
+          <t>t-767290506456039424</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,76 +7460,76 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-952989314534617088</t>
+          <t>t-834802174559412225</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-989189175357276160</t>
+          <t>t-855547644516732928</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-990385513898094592</t>
+          <t>t-855563578274754560</t>
         </is>
       </c>
       <c r="B543" t="n">
         <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-991723021709832193</t>
+          <t>t-861335479475634176</t>
         </is>
       </c>
       <c r="B544" t="n">
         <v>1</v>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-992831860215615489</t>
+          <t>t-904822909704822785</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-862454112507580416</t>
+          <t>t-1038090181595877376</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C546" t="n">
         <v>0</v>
@@ -7538,72 +7538,72 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-875285232924188672</t>
+          <t>t-970932114597335040</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-886643817893560320</t>
+          <t>t-913806353851969537</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-904822909704822785</t>
+          <t>t-940225923332403204</t>
         </is>
       </c>
       <c r="B549" t="n">
         <v>0</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-905976569503592449</t>
+          <t>t-940273268677849088</t>
         </is>
       </c>
       <c r="B550" t="n">
         <v>0</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-906394228602949632</t>
+          <t>t-948508791448002560</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-906936222282547201</t>
+          <t>t-949999091047477249</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,20 +7616,20 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-906965286787710976</t>
+          <t>t-958848005502681088</t>
         </is>
       </c>
       <c r="B553" t="n">
         <v>1</v>
       </c>
       <c r="C553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-907173357510184965</t>
+          <t>t-959068004729475072</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,11 +7642,11 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-907196691270569985</t>
+          <t>t-977185697940623360</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C555" t="n">
         <v>0</v>
@@ -7655,11 +7655,11 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-953919004132986880</t>
+          <t>t-1030184521969410055</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C556" t="n">
         <v>0</v>
@@ -7668,20 +7668,20 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-948508791448002560</t>
+          <t>t-950875222734929921</t>
         </is>
       </c>
       <c r="B557" t="n">
         <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-1003312973887270917</t>
+          <t>t-950925554487738369</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -7694,33 +7694,33 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-1003367321245798400</t>
+          <t>t-565143761131671552</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-1003369104735113216</t>
+          <t>t-590545916886659072</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-1003387066909167617</t>
+          <t>t-676725475671085057</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,11 +7733,11 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-1003393307597312000</t>
+          <t>t-845604671851057152</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C562" t="n">
         <v>1</v>
@@ -7746,11 +7746,11 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-1003471542783823872</t>
+          <t>t-891629267066290176</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C563" t="n">
         <v>0</v>
@@ -7759,63 +7759,63 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-1003531171559628800</t>
+          <t>t-498746062224375809</t>
         </is>
       </c>
       <c r="B564" t="n">
         <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-1003538396285947905</t>
+          <t>t-499104320717996032</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-1003544511115603973</t>
+          <t>t-557932086149918722</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-1003657726029975553</t>
+          <t>t-558466774392266752</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-1003966949058056192</t>
+          <t>t-558501767688642560</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C568" t="n">
         <v>0</v>
@@ -7824,24 +7824,24 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-956067919263346688</t>
+          <t>t-558892309320724482</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-956083408882536448</t>
+          <t>t-559263075183104000</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C570" t="n">
         <v>0</v>
@@ -7850,7 +7850,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-953922137156411392</t>
+          <t>t-559573400780156928</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,11 +7863,11 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-955806828146827266</t>
+          <t>t-566257094865981440</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C572" t="n">
         <v>0</v>
@@ -7876,7 +7876,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-977185697940623360</t>
+          <t>t-616630261191716864</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,20 +7889,20 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-992783370114433024</t>
+          <t>t-620843348505432064</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-1017566472292495360</t>
+          <t>t-683238954309566464</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -7915,33 +7915,33 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-1028077071480832000</t>
+          <t>t-683901242314067968</t>
         </is>
       </c>
       <c r="B576" t="n">
         <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-1030184521969410055</t>
+          <t>t-755613145079484416</t>
         </is>
       </c>
       <c r="B577" t="n">
         <v>1</v>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-1043053295298899968</t>
+          <t>t-796846317632790528</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -7954,7 +7954,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-1043072721595375616</t>
+          <t>t-806863559212679168</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,33 +7967,33 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-1043145723687129090</t>
+          <t>t-837558511772938241</t>
         </is>
       </c>
       <c r="B580" t="n">
         <v>1</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-950875222734929921</t>
+          <t>t-837704571640246272</t>
         </is>
       </c>
       <c r="B581" t="n">
         <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-950925554487738369</t>
+          <t>t-875288006172831744</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,7 +8006,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-565143761131671552</t>
+          <t>t-890567544695906304</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,11 +8019,11 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-572446866039697408</t>
+          <t>t-1041319973430255616</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C584" t="n">
         <v>1</v>
@@ -8032,7 +8032,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-575891615593721856</t>
+          <t>t-1061409798053224448</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -8045,20 +8045,20 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-648493309824925696</t>
+          <t>t-1061535382406348800</t>
         </is>
       </c>
       <c r="B586" t="n">
         <v>1</v>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-674391856298385408</t>
+          <t>t-499804424827457538</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -8071,7 +8071,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-674458539629219844</t>
+          <t>t-499826521846972416</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,7 +8084,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-676377478168862721</t>
+          <t>t-511340405753786369</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -8097,20 +8097,20 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-677293991713308673</t>
+          <t>t-632870673115774976</t>
         </is>
       </c>
       <c r="B590" t="n">
         <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-678077110070566912</t>
+          <t>t-762938358486052865</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,7 +8123,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-796846317632790528</t>
+          <t>t-806390063244410880</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,24 +8136,24 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-835120033412038656</t>
+          <t>t-806499176066453505</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-837558511772938241</t>
+          <t>t-820295860747542529</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C594" t="n">
         <v>1</v>
@@ -8162,20 +8162,20 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-837704571640246272</t>
+          <t>t-820993538456289280</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-854250685419986949</t>
+          <t>t-857957864354086912</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,24 +8188,24 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-854262837673246720</t>
+          <t>t-857974981891719168</t>
         </is>
       </c>
       <c r="B597" t="n">
         <v>1</v>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-890567544695906304</t>
+          <t>t-948796201708675072</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C598" t="n">
         <v>1</v>
@@ -8214,7 +8214,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-910155731134853120</t>
+          <t>t-948886764244033537</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,37 +8227,37 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-910165111620329472</t>
+          <t>t-1015491573092528128</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-918517038053814277</t>
+          <t>t-503088287381082112</t>
         </is>
       </c>
       <c r="B601" t="n">
         <v>0</v>
       </c>
       <c r="C601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-921445800072298496</t>
+          <t>t-545488523856338944</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C602" t="n">
         <v>1</v>
@@ -8266,24 +8266,24 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-922085813818658816</t>
+          <t>t-585340196557692928</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-930305225726054400</t>
+          <t>t-666604346558271489</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C604" t="n">
         <v>1</v>
@@ -8292,7 +8292,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-940565575226372102</t>
+          <t>t-667233953934282752</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,11 +8305,11 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-940637216757477377</t>
+          <t>t-675871788564283392</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C606" t="n">
         <v>1</v>
@@ -8318,20 +8318,20 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-970475324591915008</t>
+          <t>t-708275780988473345</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-509160710316650496</t>
+          <t>t-709001129091174403</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,7 +8344,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-509293535221145601</t>
+          <t>t-709281433978687488</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,7 +8357,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-732742567545077761</t>
+          <t>t-713640428369612800</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,33 +8370,33 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-732880819631460356</t>
+          <t>t-713641932795215874</t>
         </is>
       </c>
       <c r="B611" t="n">
         <v>1</v>
       </c>
       <c r="C611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-732926405818753025</t>
+          <t>t-713645035460251648</t>
         </is>
       </c>
       <c r="B612" t="n">
         <v>1</v>
       </c>
       <c r="C612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-733131015837745153</t>
+          <t>t-713649642907406336</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,7 +8409,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-733131209660735493</t>
+          <t>t-713682083688767488</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,7 +8422,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-733188233803128832</t>
+          <t>t-714598783724597248</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,24 +8435,24 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-733201290151514113</t>
+          <t>t-714729459107119104</t>
         </is>
       </c>
       <c r="B616" t="n">
         <v>1</v>
       </c>
       <c r="C616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-782517721938300928</t>
+          <t>t-715080311059517440</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C617" t="n">
         <v>1</v>
@@ -8461,11 +8461,11 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-806390063244410880</t>
+          <t>t-718078465698881536</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C618" t="n">
         <v>1</v>
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-806499176066453505</t>
+          <t>t-718738885862232064</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-823758777857908736</t>
+          <t>t-718790966774083584</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,11 +8500,11 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-823809561622695937</t>
+          <t>t-736424760335179778</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C621" t="n">
         <v>1</v>
@@ -8513,20 +8513,20 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-823868915621052416</t>
+          <t>t-756020759726727169</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-824113067696930816</t>
+          <t>t-838333127739260928</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-824154025864167424</t>
+          <t>t-838721199874048000</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,24 +8552,24 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-824160171534467072</t>
+          <t>t-842271490141634560</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-825053893184753664</t>
+          <t>t-842322052103122944</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C626" t="n">
         <v>0</v>
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-825136994833428480</t>
+          <t>t-842905808266448896</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,11 +8591,11 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-825930607427416064</t>
+          <t>t-842910185718931456</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C628" t="n">
         <v>1</v>
@@ -8604,24 +8604,24 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-827493643661381632</t>
+          <t>t-880004628884013057</t>
         </is>
       </c>
       <c r="B629" t="n">
         <v>1</v>
       </c>
       <c r="C629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-832449416082579456</t>
+          <t>t-928491239808233473</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C630" t="n">
         <v>0</v>
@@ -8630,20 +8630,20 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-864437375618830336</t>
+          <t>t-928882270554877953</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-916572694472155137</t>
+          <t>t-928900503953588224</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-976046458834116609</t>
+          <t>t-928967839649804289</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-532513757776183296</t>
+          <t>t-929323628226686976</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,20 +8682,20 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-571610231173599232</t>
+          <t>t-1024894521568448513</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-605261202822807552</t>
+          <t>t-1061598368164528128</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,7 +8708,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-605672293654654976</t>
+          <t>t-1061625768696930304</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-662632429539057666</t>
+          <t>t-1061782167494320130</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,20 +8734,20 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-662681193154920448</t>
+          <t>t-1062219458046058496</t>
         </is>
       </c>
       <c r="B639" t="n">
         <v>1</v>
       </c>
       <c r="C639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-663567974029131776</t>
+          <t>t-508042249457139712</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-671487099355426816</t>
+          <t>t-930049646444945408</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,24 +8773,24 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-671928198360391680</t>
+          <t>t-930646694097645568</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-672328618379362304</t>
+          <t>t-518708677113438208</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C643" t="n">
         <v>1</v>
@@ -8799,20 +8799,20 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-673050773710839808</t>
+          <t>t-528210205746532352</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-674612681832140800</t>
+          <t>t-528777132097298433</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,11 +8825,11 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-675871788564283392</t>
+          <t>t-528826156708278272</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C646" t="n">
         <v>0</v>
@@ -8838,7 +8838,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-683221184775733248</t>
+          <t>t-528877062564503552</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,7 +8851,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-685773216275533824</t>
+          <t>t-529071458085900288</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,7 +8864,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-721601854761619457</t>
+          <t>t-529085805034094593</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-721697193174798336</t>
+          <t>t-529166911674671104</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-789409624138985476</t>
+          <t>t-529236028171620353</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-789409631646785537</t>
+          <t>t-529319778377166848</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,20 +8916,20 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-838333127739260928</t>
+          <t>t-530135697877766146</t>
         </is>
       </c>
       <c r="B653" t="n">
         <v>1</v>
       </c>
       <c r="C653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-838721199874048000</t>
+          <t>t-530218899833241600</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,11 +8942,11 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-842271490141634560</t>
+          <t>t-676067082081976320</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C655" t="n">
         <v>0</v>
@@ -8955,33 +8955,33 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-842322052103122944</t>
+          <t>t-689784474884648961</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-842905808266448896</t>
+          <t>t-801312317355003904</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-842910185718931456</t>
+          <t>t-822370054381522945</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,7 +8994,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-845583720950128640</t>
+          <t>t-853130130432176128</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,7 +9007,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-924905228415193088</t>
+          <t>t-791933405902442497</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,7 +9020,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-973099299910250497</t>
+          <t>t-555323393890058240</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,7 +9033,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-1061598368164528128</t>
+          <t>t-555327376440053760</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-1061625768696930304</t>
+          <t>t-694164443224154112</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,7 +9059,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-1061782167494320130</t>
+          <t>t-694343886626394113</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,7 +9072,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-1062219458046058496</t>
+          <t>t-694445663426207744</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,11 +9085,11 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-529909835525939202</t>
+          <t>t-740483903366926337</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C666" t="n">
         <v>1</v>
@@ -9098,7 +9098,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-723687727468683264</t>
+          <t>t-825956164366172160</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-723764446498152448</t>
+          <t>t-825956302023163905</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,20 +9124,20 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-801312317355003904</t>
+          <t>t-825967811814125568</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-989542585978052610</t>
+          <t>t-825983840988467200</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,11 +9150,11 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-521700184376770560</t>
+          <t>t-832183739346063361</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C671" t="n">
         <v>1</v>
@@ -9163,37 +9163,37 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-551339874838908928</t>
+          <t>t-983954928610697216</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-664089575191478272</t>
+          <t>t-666809196977909760</t>
         </is>
       </c>
       <c r="B673" t="n">
         <v>0</v>
       </c>
       <c r="C673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-777029515289563136</t>
+          <t>t-673010347008110593</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C674" t="n">
         <v>1</v>
@@ -9202,24 +9202,24 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-777052253362335745</t>
+          <t>t-674974370180239360</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-983954928610697216</t>
+          <t>t-757365069608923136</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C676" t="n">
         <v>1</v>
@@ -9228,20 +9228,20 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-545394272619331584</t>
+          <t>t-817285829861093377</t>
         </is>
       </c>
       <c r="B677" t="n">
         <v>0</v>
       </c>
       <c r="C677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-666809196977909760</t>
+          <t>t-734168300121395200</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -9254,7 +9254,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-694769781573050368</t>
+          <t>t-924811540154540032</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,7 +9267,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-797741772730306560</t>
+          <t>t-924943312192073729</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,7 +9280,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-797789959478353920</t>
+          <t>t-928119470215847936</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,7 +9293,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-797794521597644800</t>
+          <t>t-540747270207991808</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,11 +9306,11 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-922457591313137664</t>
+          <t>t-540776934658277377</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C683" t="n">
         <v>1</v>
@@ -9319,11 +9319,11 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-922793297873010689</t>
+          <t>t-859771332908777474</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C684" t="n">
         <v>0</v>
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-681630649879543808</t>
+          <t>t-919895715089932288</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,7 +9345,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-822808230711721984</t>
+          <t>t-1060932314279170048</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-540747270207991808</t>
+          <t>t-666482399069343745</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,20 +9371,20 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-558414856756293634</t>
+          <t>t-734985227739619329</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-558416982677422081</t>
+          <t>t-597692277847298049</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,24 +9397,24 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-636337860757483520</t>
+          <t>t-557074144505114625</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-779194196724887553</t>
+          <t>t-908138128514437120</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C691" t="n">
         <v>1</v>
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-547361002212188160</t>
+          <t>t-1027038929319411712</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,20 +9436,20 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-734985227739619329</t>
+          <t>t-1027057881365901312</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-824143990274588672</t>
+          <t>t-1027179632922046467</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-703883305427427329</t>
+          <t>t-556107639625510912</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,7 +9475,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-704164134657486848</t>
+          <t>t-564756286211100672</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,24 +9488,24 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-558523740888109056</t>
+          <t>t-565303060420112386</t>
         </is>
       </c>
       <c r="B697" t="n">
         <v>1</v>
       </c>
       <c r="C697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-594000547591553024</t>
+          <t>t-565336619021262848</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C698" t="n">
         <v>1</v>
@@ -9514,20 +9514,20 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-594263552824741888</t>
+          <t>t-579496758595584000</t>
         </is>
       </c>
       <c r="B699" t="n">
         <v>1</v>
       </c>
       <c r="C699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-594718318050684929</t>
+          <t>t-594000547591553024</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-595757559006507011</t>
+          <t>t-594263552824741888</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,20 +9553,20 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-706439330877714432</t>
+          <t>t-594718318050684929</t>
         </is>
       </c>
       <c r="B702" t="n">
         <v>1</v>
       </c>
       <c r="C702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-826783220507168768</t>
+          <t>t-595757559006507011</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,7 +9579,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-832028212376985600</t>
+          <t>t-704474821959163905</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,7 +9592,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-832064333504933888</t>
+          <t>t-706439330877714432</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,11 +9605,11 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-895185499131961344</t>
+          <t>t-780018288940158976</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C706" t="n">
         <v>0</v>
@@ -9618,7 +9618,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-563225583400648704</t>
+          <t>t-781093621592383488</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -9631,11 +9631,11 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-564347457773920257</t>
+          <t>t-808956641743732736</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C708" t="n">
         <v>1</v>
@@ -9644,11 +9644,11 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-638407777333850112</t>
+          <t>t-809733108471889920</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C709" t="n">
         <v>0</v>
@@ -9657,20 +9657,20 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-729180420265279489</t>
+          <t>t-895185499131961344</t>
         </is>
       </c>
       <c r="B710" t="n">
         <v>0</v>
       </c>
       <c r="C710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-729281192772542465</t>
+          <t>t-564347457773920257</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-757432883531304960</t>
+          <t>t-698712295900229633</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-932461262268661760</t>
+          <t>t-718718501679017984</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-932590015711993858</t>
+          <t>t-720546793344270336</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,20 +9722,20 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-932596112241786880</t>
+          <t>t-729241413867556864</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-932690981908074496</t>
+          <t>t-802066289527095297</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,7 +9748,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-932881287005835264</t>
+          <t>t-802114052063252481</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,7 +9761,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-1004628011856089090</t>
+          <t>t-935268837662052353</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,7 +9774,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-584288298249531392</t>
+          <t>t-935313787321585664</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,7 +9787,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-674136729771577344</t>
+          <t>t-935539265307660289</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,33 +9800,33 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-702366811925438465</t>
+          <t>t-935690311879282688</t>
         </is>
       </c>
       <c r="B721" t="n">
         <v>1</v>
       </c>
       <c r="C721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-843318937064366080</t>
+          <t>t-936855089326604288</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-833819761821757440</t>
+          <t>t-590978217546092544</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9852,20 +9852,20 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-639809419102937088</t>
+          <t>t-792051379564969985</t>
         </is>
       </c>
       <c r="B725" t="n">
         <v>1</v>
       </c>
       <c r="C725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-837085298324619265</t>
+          <t>t-1062157078439968770</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-691264325659422721</t>
+          <t>t-812509278762242048</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,11 +9891,11 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-691280497184362497</t>
+          <t>t-732116489394851840</t>
         </is>
       </c>
       <c r="B728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C728" t="n">
         <v>1</v>
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-702431733740920832</t>
+          <t>t-732306842290946048</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-702439207684464640</t>
+          <t>t-733197295139741697</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,11 +9930,11 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-732116489394851840</t>
+          <t>t-760724447745699841</t>
         </is>
       </c>
       <c r="B731" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C731" t="n">
         <v>1</v>
@@ -9943,39 +9943,13 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-732306842290946048</t>
+          <t>t-798490523820380160</t>
         </is>
       </c>
       <c r="B732" t="n">
         <v>1</v>
       </c>
       <c r="C732" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>t-964014223184375808</t>
-        </is>
-      </c>
-      <c r="B733" t="n">
-        <v>1</v>
-      </c>
-      <c r="C733" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>t-946177924222222336</t>
-        </is>
-      </c>
-      <c r="B734" t="n">
-        <v>1</v>
-      </c>
-      <c r="C734" t="n">
         <v>1</v>
       </c>
     </row>
